--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31E8BEF3-8394-47B5-9A05-B367D404BBE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12240" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvokeApplication" sheetId="2" r:id="rId1"/>
@@ -46,15 +47,9 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Rajendra</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>Mahapatra</t>
-  </si>
-  <si>
     <t>http://newtours.demoaut.com</t>
   </si>
   <si>
@@ -79,19 +74,25 @@
     <t>Welcome: Mercury Tours</t>
   </si>
   <si>
-    <t>Find a Flight: Mercury Tours:</t>
-  </si>
-  <si>
     <t>expText</t>
   </si>
   <si>
     <t>itinerary has been booked!</t>
+  </si>
+  <si>
+    <t>inayak</t>
+  </si>
+  <si>
+    <t>Binayak</t>
+  </si>
+  <si>
+    <t>Padhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -224,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +261,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,38 +505,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -506,21 +544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -528,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -549,28 +587,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -579,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,19 +634,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31E8BEF3-8394-47B5-9A05-B367D404BBE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04768A9-3294-405D-BD78-D79EBE35B985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>URL</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Padhi</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>current date</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,18 +161,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,10 +607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,9 +620,10 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -625,8 +645,11 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -647,6 +670,9 @@
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04768A9-3294-405D-BD78-D79EBE35B985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E70DF26-5934-4BC9-866A-C3BC69A34B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>Padhi</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>current date</t>
   </si>
 </sst>
 </file>
@@ -138,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,31 +155,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,10 +588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +601,9 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -645,11 +625,8 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -670,9 +647,6 @@
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
